--- a/data/trans_orig/IP1005-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1005-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B13AC36-B200-4907-A071-0AFAF3DA36AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69BBD477-0BF5-4F4A-812F-E46B29D312E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6C15634F-91F0-41CB-B4FE-067311B94BAB}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4AB593E5-B075-4446-B123-AB948C13C4C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,87 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
@@ -91,15 +157,9 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,6%</t>
   </si>
   <si>
@@ -112,43 +172,37 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -184,60 +238,6 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
@@ -295,6 +295,60 @@
     <t>Menores según si padecen cardipatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
@@ -319,40 +373,28 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>98,39%</t>
@@ -361,48 +403,6 @@
     <t>1,61%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -442,6 +442,36 @@
     <t>Menores según si padecen cardipatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
     <t>99,06%</t>
   </si>
   <si>
@@ -490,70 +520,40 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
     <t>99,34%</t>
   </si>
   <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>0,68%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -975,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE40EAD9-240D-4F8F-B2ED-EC172F1AE239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCB1B7-A857-4FF5-9EA5-52DD0035D365}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1093,10 +1093,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>211463</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1108,31 +1108,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>194521</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>632</v>
-      </c>
-      <c r="N4" s="7">
-        <v>405984</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1141,52 +1141,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>642</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1321</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1195,54 +1195,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1254,13 +1254,13 @@
         <v>127031</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -1269,13 +1269,13 @@
         <v>116002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>366</v>
@@ -1284,19 +1284,19 @@
         <v>243033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1305,13 +1305,13 @@
         <v>602</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1335,13 +1335,13 @@
         <v>602</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1356,13 +1356,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1371,13 +1371,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1386,117 +1386,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>207124</v>
+        <v>211463</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>311</v>
+      </c>
+      <c r="I10" s="7">
+        <v>194521</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>632</v>
+      </c>
+      <c r="N10" s="7">
+        <v>405984</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>274</v>
-      </c>
-      <c r="I10" s="7">
-        <v>209315</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="7">
-        <v>579</v>
-      </c>
-      <c r="N10" s="7">
-        <v>416439</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>642</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1321</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>700</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1505,108 +1505,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>227</v>
+      </c>
+      <c r="I13" s="7">
+        <v>136511</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <v>459</v>
+      </c>
+      <c r="N13" s="7">
+        <v>286168</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="7">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48168</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1615,40 +1615,40 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1306</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1306</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>54</v>
@@ -1660,49 +1660,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,28 +1713,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7">
-        <v>149657</v>
+        <v>207124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>136511</v>
+        <v>209315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>58</v>
@@ -1743,10 +1743,10 @@
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>459</v>
+        <v>579</v>
       </c>
       <c r="N16" s="7">
-        <v>286168</v>
+        <v>416439</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>59</v>
@@ -1755,55 +1755,55 @@
         <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>700</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1306</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1306</v>
+        <v>700</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>65</v>
@@ -1815,49 +1815,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,7 +1916,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -1976,13 +1976,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1991,13 +1991,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2006,13 +2006,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +2033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538778CC-66EF-4463-AC1A-6A20D185FAF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06678DF3-4EC8-4D94-A035-88B8C61E53EF}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2151,28 +2151,28 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>204704</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>86</v>
@@ -2181,16 +2181,16 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>637</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>426682</v>
+        <v>47828</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2199,7 +2199,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2208,43 +2208,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>694</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>694</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,54 +2253,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2312,13 +2312,13 @@
         <v>126964</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -2327,13 +2327,13 @@
         <v>113357</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>338</v>
@@ -2342,19 +2342,19 @@
         <v>240321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2363,13 +2363,13 @@
         <v>679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2378,13 +2378,13 @@
         <v>661</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2393,13 +2393,13 @@
         <v>1340</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2414,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2429,13 +2429,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2444,117 +2444,117 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>206410</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>316</v>
+      </c>
+      <c r="I10" s="7">
+        <v>204704</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>637</v>
+      </c>
+      <c r="N10" s="7">
+        <v>426682</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>275</v>
-      </c>
-      <c r="I10" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="7">
-        <v>555</v>
-      </c>
-      <c r="N10" s="7">
-        <v>416710</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>672</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,108 +2563,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I13" s="7">
-        <v>22373</v>
+        <v>154396</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>495</v>
       </c>
       <c r="N13" s="7">
-        <v>47828</v>
+        <v>320381</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2673,43 +2673,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,49 +2718,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,100 +2771,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="D16" s="7">
-        <v>165985</v>
+        <v>206410</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7">
-        <v>154396</v>
+        <v>210300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="N16" s="7">
-        <v>320381</v>
+        <v>416710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>672</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>443</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>443</v>
+        <v>672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,49 +2873,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,7 +2938,7 @@
         <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H19" s="7">
         <v>1015</v>
@@ -2947,7 +2947,7 @@
         <v>705131</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>123</v>
@@ -2974,7 +2974,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -2986,7 +2986,7 @@
         <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>128</v>
@@ -2998,7 +2998,7 @@
         <v>1797</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>129</v>
@@ -3034,13 +3034,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3049,13 +3049,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3064,13 +3064,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +3091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEDD6AA-5E84-4807-B8EE-173BF9AD529D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CD29C2-4CEF-4368-A210-67F6B1C01CF5}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3209,100 +3209,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>222261</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22527</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>331</v>
-      </c>
-      <c r="I4" s="7">
-        <v>205407</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>660</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>427668</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2098</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1840</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3938</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,54 +3311,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>24</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="7">
-        <v>334</v>
-      </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3370,13 +3370,13 @@
         <v>121825</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -3385,13 +3385,13 @@
         <v>111180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>327</v>
@@ -3403,16 +3403,16 @@
         <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3421,13 +3421,13 @@
         <v>677</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3454,10 +3454,10 @@
         <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3472,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3487,13 +3487,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3502,117 +3502,117 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="D10" s="7">
-        <v>205736</v>
+        <v>222261</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="I10" s="7">
-        <v>207420</v>
+        <v>205407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>571</v>
+        <v>660</v>
       </c>
       <c r="N10" s="7">
-        <v>413156</v>
+        <v>427668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2098</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1840</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="7">
+        <v>6</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3938</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,153 +3621,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>165576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>155518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>504</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>321094</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,49 +3776,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,100 +3829,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>165576</v>
+        <v>205736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>155518</v>
+        <v>207420</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>504</v>
+        <v>571</v>
       </c>
       <c r="N16" s="7">
-        <v>321094</v>
+        <v>413156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1097</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1576</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,49 +3931,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4005,7 @@
         <v>702052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>174</v>
@@ -4023,7 +4023,7 @@
         <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>176</v>
@@ -4032,7 +4032,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>6</v>
@@ -4056,7 +4056,7 @@
         <v>2319</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>79</v>
@@ -4077,7 +4077,7 @@
         <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4092,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4107,13 +4107,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4122,13 +4122,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1005-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1005-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69BBD477-0BF5-4F4A-812F-E46B29D312E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF363A9-23F7-4AC9-B811-9D9A5911DA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4AB593E5-B075-4446-B123-AB948C13C4C9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{931255B7-2A46-47C3-8966-EFD90905B20A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="182">
-  <si>
-    <t>Menores según si padecen cardipatía congénita en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="177">
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,31 +106,28 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>96,85%</t>
+    <t>97,28%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -121,469 +136,439 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>98,76%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>99,68%</t>
   </si>
   <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardipatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardipatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
   </si>
 </sst>
 </file>
@@ -594,7 +579,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -690,39 +675,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -774,7 +759,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -885,13 +870,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -900,6 +878,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -964,19 +949,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCB1B7-A857-4FF5-9EA5-52DD0035D365}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5162DCB-7A1B-4E60-A9E8-244A1B4AB9F5}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1093,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1108,34 +1113,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1144,10 +1149,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1159,34 +1164,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1201,13 +1206,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1216,13 +1221,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1231,13 +1236,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1248,49 +1253,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>127031</v>
+        <v>602</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>116002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>243033</v>
+        <v>602</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1299,49 +1304,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>602</v>
+        <v>127031</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>116002</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>602</v>
+        <v>243033</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1356,13 +1361,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1371,13 +1376,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1386,13 +1391,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,49 +1408,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>211463</v>
+        <v>679</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>194521</v>
+        <v>642</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>405984</v>
+        <v>1321</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,49 +1459,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>679</v>
+        <v>211463</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="I11" s="7">
-        <v>642</v>
+        <v>194521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>632</v>
       </c>
       <c r="N11" s="7">
-        <v>1321</v>
+        <v>405984</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,13 +1516,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1526,13 +1531,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1541,13 +1546,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,49 +1563,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>149657</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>136511</v>
+        <v>1306</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="7">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>286168</v>
+        <v>1306</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,49 +1614,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>149657</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="I14" s="7">
-        <v>1306</v>
+        <v>136511</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>459</v>
       </c>
       <c r="N14" s="7">
-        <v>1306</v>
+        <v>286168</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,13 +1671,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1681,13 +1686,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1696,13 +1701,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,49 +1718,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>207124</v>
+        <v>700</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>579</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>416439</v>
+        <v>700</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,49 +1769,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>207124</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>579</v>
       </c>
       <c r="N17" s="7">
-        <v>700</v>
+        <v>416439</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,13 +1826,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1836,13 +1841,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1851,13 +1856,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,10 +1873,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1083</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>720719</v>
+        <v>1981</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>66</v>
@@ -1883,34 +1888,34 @@
         <v>68</v>
       </c>
       <c r="H19" s="7">
-        <v>1015</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>679073</v>
+        <v>1948</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>69</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3929</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1399792</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,49 +1924,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1083</v>
       </c>
       <c r="D20" s="7">
-        <v>1981</v>
+        <v>720719</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I20" s="7">
+        <v>679073</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1948</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2098</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1399792</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3929</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1981,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1991,13 +1996,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2006,13 +2011,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2033,8 +2043,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06678DF3-4EC8-4D94-A035-88B8C61E53EF}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03663E8-E2CA-4DBA-8305-C2D152990AB2}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2050,7 +2060,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2151,49 +2161,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>54</v>
-      </c>
-      <c r="N4" s="7">
-        <v>47828</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,49 +2212,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22373</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>54</v>
+      </c>
+      <c r="N5" s="7">
+        <v>47828</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2269,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2274,13 +2284,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2289,13 +2299,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,49 +2316,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126964</v>
+        <v>679</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>661</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>158</v>
-      </c>
-      <c r="I7" s="7">
-        <v>113357</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1340</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>338</v>
-      </c>
-      <c r="N7" s="7">
-        <v>240321</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,49 +2367,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>679</v>
+        <v>126964</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
+        <v>158</v>
+      </c>
+      <c r="I8" s="7">
+        <v>113357</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>661</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="7">
+        <v>338</v>
+      </c>
+      <c r="N8" s="7">
+        <v>240321</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1340</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2424,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2429,13 +2439,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2444,13 +2454,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,49 +2471,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H10" s="7">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>204704</v>
+        <v>694</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>694</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>637</v>
-      </c>
-      <c r="N10" s="7">
-        <v>426682</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,49 +2522,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="I11" s="7">
-        <v>694</v>
+        <v>204704</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>637</v>
       </c>
       <c r="N11" s="7">
-        <v>694</v>
+        <v>426682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,16 +2576,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2584,13 +2594,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2599,13 +2609,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,49 +2626,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>165985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>154396</v>
+        <v>443</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
-        <v>495</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>320381</v>
+        <v>443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,49 +2677,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>165985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I14" s="7">
-        <v>443</v>
+        <v>154396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>495</v>
       </c>
       <c r="N14" s="7">
-        <v>443</v>
+        <v>320381</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2734,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2739,13 +2749,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2754,13 +2764,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,49 +2781,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>206410</v>
+        <v>672</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="H16" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>210300</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>416710</v>
+        <v>672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,49 +2832,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="D17" s="7">
-        <v>672</v>
+        <v>206410</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>210300</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>555</v>
       </c>
       <c r="N17" s="7">
-        <v>672</v>
+        <v>416710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2889,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2894,13 +2904,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2909,13 +2919,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,49 +2936,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1064</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>746791</v>
+        <v>1351</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
-        <v>1015</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>705131</v>
+        <v>1797</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
-        <v>2079</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>1451922</v>
+        <v>3148</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2987,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>1064</v>
       </c>
       <c r="D20" s="7">
-        <v>1351</v>
+        <v>746791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>1015</v>
       </c>
       <c r="I20" s="7">
-        <v>1797</v>
+        <v>705131</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>2079</v>
       </c>
       <c r="N20" s="7">
-        <v>3148</v>
+        <v>1451922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3044,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3049,13 +3059,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3064,13 +3074,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3091,8 +3106,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CD29C2-4CEF-4368-A210-67F6B1C01CF5}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73896EEF-935D-49DB-A3A9-2753257F9C04}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3108,7 +3123,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3209,49 +3224,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,49 +3275,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3332,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3332,13 +3347,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3347,13 +3362,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,49 +3379,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>121825</v>
+        <v>677</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>233005</v>
+        <v>677</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,49 +3430,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>677</v>
+        <v>121825</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>111180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="N8" s="7">
-        <v>677</v>
+        <v>233005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3487,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3487,13 +3502,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3502,13 +3517,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,49 +3534,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>222261</v>
+        <v>2098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
-        <v>331</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>205407</v>
+        <v>1840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
-        <v>660</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>427668</v>
+        <v>3938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,49 +3585,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>329</v>
       </c>
       <c r="D11" s="7">
-        <v>2098</v>
+        <v>222261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="I11" s="7">
-        <v>1840</v>
+        <v>205407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>660</v>
       </c>
       <c r="N11" s="7">
-        <v>3938</v>
+        <v>427668</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3642,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3642,13 +3657,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3657,13 +3672,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,49 +3689,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>165576</v>
+        <v>1097</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>155518</v>
+        <v>479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>321094</v>
+        <v>1576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,49 +3740,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>1097</v>
+        <v>165576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="I14" s="7">
-        <v>479</v>
+        <v>155518</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>504</v>
       </c>
       <c r="N14" s="7">
-        <v>1576</v>
+        <v>321094</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3797,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3797,13 +3812,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3812,13 +3827,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,49 +3844,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>205736</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>207420</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>413156</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,49 +3895,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>205736</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>207420</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>413156</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3952,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3952,13 +3967,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3967,13 +3982,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,49 +3999,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1059</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>740972</v>
+        <v>3872</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
-        <v>1057</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>702052</v>
+        <v>2319</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
-        <v>2116</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>1443024</v>
+        <v>6191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,49 +4050,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>1059</v>
       </c>
       <c r="D20" s="7">
-        <v>3872</v>
+        <v>740972</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>1057</v>
       </c>
       <c r="I20" s="7">
-        <v>2319</v>
+        <v>702052</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>2116</v>
       </c>
       <c r="N20" s="7">
-        <v>6191</v>
+        <v>1443024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4107,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4107,13 +4122,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4122,13 +4137,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1005-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1005-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF363A9-23F7-4AC9-B811-9D9A5911DA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A5362E-5AEA-485D-816E-9D894B75863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{931255B7-2A46-47C3-8966-EFD90905B20A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0B64F36-D73E-41B9-8F95-CE3C89CF9C91}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="179">
   <si>
     <t>Menores según si padecen anomalía/malformación congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,463 +106,469 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen anomalía/malformación congénita en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -980,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5162DCB-7A1B-4E60-A9E8-244A1B4AB9F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7179DF-7C0B-4D39-B7CD-7D1B3ED76239}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1450,7 +1456,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,10 +1471,10 @@
         <v>211463</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -1480,10 +1486,10 @@
         <v>194521</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -1495,10 +1501,10 @@
         <v>405984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1557,7 +1563,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1575,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1584,13 +1590,13 @@
         <v>1306</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1599,13 +1605,13 @@
         <v>1306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,7 +1629,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1635,10 +1641,10 @@
         <v>136511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -1650,10 +1656,10 @@
         <v>286168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1712,7 +1718,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1724,13 +1730,13 @@
         <v>700</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1745,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1754,13 +1760,13 @@
         <v>700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,10 +1781,10 @@
         <v>207124</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1793,7 +1799,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1805,10 +1811,10 @@
         <v>416439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1879,13 +1885,13 @@
         <v>1981</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -1894,13 +1900,13 @@
         <v>1948</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -1909,13 +1915,13 @@
         <v>3929</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1936,13 @@
         <v>720719</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>1015</v>
@@ -1945,13 +1951,13 @@
         <v>679073</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M20" s="7">
         <v>2098</v>
@@ -2043,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03663E8-E2CA-4DBA-8305-C2D152990AB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3FCD82-0946-493F-B03D-965DAF721AD5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2483,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2492,13 +2498,13 @@
         <v>694</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2507,13 +2513,13 @@
         <v>694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2531,13 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2543,10 +2549,10 @@
         <v>204704</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2558,10 +2564,10 @@
         <v>426682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2576,7 +2582,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2620,7 +2626,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2647,7 +2653,7 @@
         <v>443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
@@ -2668,7 +2674,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2692,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2698,10 +2704,10 @@
         <v>154396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2713,10 +2719,10 @@
         <v>320381</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2775,7 +2781,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2793,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2808,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2817,13 +2823,13 @@
         <v>672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,10 +2844,10 @@
         <v>206410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2856,7 +2862,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2868,10 +2874,10 @@
         <v>416710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -2942,13 +2948,13 @@
         <v>1351</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2960,10 +2966,10 @@
         <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2972,13 +2978,13 @@
         <v>3148</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,10 +2999,10 @@
         <v>746791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3011,10 +3017,10 @@
         <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>2079</v>
@@ -3023,13 +3029,13 @@
         <v>1451922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73896EEF-935D-49DB-A3A9-2753257F9C04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87EC22B-1E88-460D-93A2-53CF30C60BED}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3123,7 +3129,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3236,7 +3242,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3251,7 +3257,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3284,7 +3290,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3299,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3391,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3406,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3415,13 +3421,13 @@
         <v>677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3445,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3454,7 +3460,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3466,10 +3472,10 @@
         <v>233005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3540,13 +3546,13 @@
         <v>2098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3555,13 +3561,13 @@
         <v>1840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3570,13 +3576,13 @@
         <v>3938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3597,13 @@
         <v>222261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>331</v>
@@ -3606,13 +3612,13 @@
         <v>205407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
@@ -3621,13 +3627,13 @@
         <v>427668</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3689,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3695,13 +3701,13 @@
         <v>1097</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3710,13 +3716,13 @@
         <v>479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3725,13 +3731,13 @@
         <v>1576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3752,7 @@
         <v>165576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>159</v>
@@ -3838,7 +3844,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3856,7 +3862,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3886,7 +3892,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,7 +3910,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3934,7 +3940,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4011,7 +4017,7 @@
         <v>168</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4023,10 +4029,10 @@
         <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -4035,13 +4041,13 @@
         <v>6191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4062,13 @@
         <v>740972</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>1057</v>
@@ -4071,13 +4077,13 @@
         <v>702052</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>2116</v>
@@ -4086,13 +4092,13 @@
         <v>1443024</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1005-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1005-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A5362E-5AEA-485D-816E-9D894B75863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0B74B2-4EB3-42D5-B43F-3E2045270D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0B64F36-D73E-41B9-8F95-CE3C89CF9C91}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E02486AF-7BEA-423E-8895-F9226BB6F589}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="164">
   <si>
     <t>Menores según si padecen anomalía/malformación congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,442 +100,403 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen anomalía/malformación congénita en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>99,85%</t>
@@ -541,40 +508,28 @@
     <t>99,32%</t>
   </si>
   <si>
+    <t>0,78%</t>
+  </si>
+  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>0,8%</t>
+    <t>99,22%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>98,86%</t>
   </si>
   <si>
     <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
   </si>
 </sst>
 </file>
@@ -986,8 +941,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7179DF-7C0B-4D39-B7CD-7D1B3ED76239}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCFF1B7-F0BF-4CB3-9F92-0037BDD0CAB8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1119,82 +1074,82 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>152475</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>291201</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1206,54 +1161,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1262,97 +1217,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>602</v>
+        <v>1321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>127031</v>
+        <v>194521</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>116002</v>
+        <v>211463</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>366</v>
+        <v>632</v>
       </c>
       <c r="N8" s="7">
-        <v>243033</v>
+        <v>405984</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,153 +1316,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>679</v>
+        <v>1306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1321</v>
+        <v>1306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>211463</v>
+        <v>136511</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>194521</v>
+        <v>149657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>632</v>
+        <v>459</v>
       </c>
       <c r="N11" s="7">
-        <v>405984</v>
+        <v>286168</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,54 +1471,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1581,88 +1536,88 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1306</v>
+        <v>700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1306</v>
+        <v>700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>305</v>
+      </c>
+      <c r="I14" s="7">
+        <v>207124</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="7">
-        <v>227</v>
-      </c>
-      <c r="I14" s="7">
-        <v>136511</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M14" s="7">
-        <v>459</v>
+        <v>579</v>
       </c>
       <c r="N14" s="7">
-        <v>286168</v>
+        <v>416439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,153 +1626,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>700</v>
+        <v>1948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>700</v>
+        <v>3929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>305</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="7">
-        <v>207124</v>
+        <v>679073</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1083</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>720719</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
-        <v>579</v>
+        <v>2098</v>
       </c>
       <c r="N17" s="7">
-        <v>416439</v>
+        <v>1399792</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,217 +1781,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1981</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1948</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3929</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D20" s="7">
-        <v>720719</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I20" s="7">
-        <v>679073</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1399792</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2049,8 +1848,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3FCD82-0946-493F-B03D-965DAF721AD5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02119F3-B439-4213-AA5D-57B501D5320A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2066,7 +1865,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2167,79 +1966,79 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>679</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1340</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>135730</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>152419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>88</v>
@@ -2248,16 +2047,16 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>392</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>288149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2269,54 +2068,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2325,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -2337,85 +2136,85 @@
         <v>91</v>
       </c>
       <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="7">
-        <v>661</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="7">
+        <v>694</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1340</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="D8" s="7">
-        <v>126964</v>
+        <v>204704</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>321</v>
+      </c>
+      <c r="I8" s="7">
+        <v>221977</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>637</v>
+      </c>
+      <c r="N8" s="7">
+        <v>426682</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>158</v>
-      </c>
-      <c r="I8" s="7">
-        <v>113357</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="7">
-        <v>338</v>
-      </c>
-      <c r="N8" s="7">
-        <v>240321</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,153 +2223,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>443</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>694</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>694</v>
+        <v>443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>204704</v>
+        <v>165985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>637</v>
+        <v>495</v>
       </c>
       <c r="N11" s="7">
-        <v>426682</v>
+        <v>320381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,54 +2378,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2644,88 +2443,88 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>443</v>
+        <v>672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>443</v>
+        <v>672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>280</v>
+      </c>
+      <c r="I14" s="7">
+        <v>206410</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="7">
-        <v>240</v>
-      </c>
-      <c r="I14" s="7">
-        <v>154396</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M14" s="7">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="N14" s="7">
-        <v>320381</v>
+        <v>416710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,153 +2533,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>672</v>
+        <v>1797</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1351</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>672</v>
+        <v>3148</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>280</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="7">
-        <v>206410</v>
+        <v>705131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1064</v>
+      </c>
+      <c r="I17" s="7">
+        <v>746791</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>275</v>
-      </c>
-      <c r="I17" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>555</v>
+        <v>2079</v>
       </c>
       <c r="N17" s="7">
-        <v>416710</v>
+        <v>1451922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,217 +2688,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1351</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1797</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3148</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D20" s="7">
-        <v>746791</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I20" s="7">
-        <v>705131</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2079</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1451922</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3112,8 +2755,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87EC22B-1E88-460D-93A2-53CF30C60BED}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF7872D-C749-43A9-96F7-1A8AF881AE71}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3129,7 +2772,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3242,85 +2885,85 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>147399</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>281106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3332,153 +2975,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>677</v>
+        <v>1840</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2098</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3938</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>677</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>164</v>
+        <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>121825</v>
+        <v>205407</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>222261</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>327</v>
+        <v>660</v>
       </c>
       <c r="N8" s="7">
-        <v>233005</v>
+        <v>427668</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,153 +3130,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>479</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1097</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>2098</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1840</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" s="7">
-        <v>6</v>
-      </c>
       <c r="N10" s="7">
-        <v>3938</v>
+        <v>1576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>222261</v>
+        <v>155518</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="I11" s="7">
-        <v>205407</v>
+        <v>165576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>660</v>
+        <v>504</v>
       </c>
       <c r="N11" s="7">
-        <v>427668</v>
+        <v>321094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,153 +3285,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1097</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>479</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1576</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>165576</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>155518</v>
+        <v>205736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>504</v>
+        <v>571</v>
       </c>
       <c r="N14" s="7">
-        <v>321094</v>
+        <v>413156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,153 +3440,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2319</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>3872</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>6191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>1057</v>
       </c>
       <c r="D17" s="7">
-        <v>205736</v>
+        <v>702052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>1059</v>
       </c>
       <c r="I17" s="7">
-        <v>207420</v>
+        <v>740972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
-        <v>571</v>
+        <v>2116</v>
       </c>
       <c r="N17" s="7">
-        <v>413156</v>
+        <v>1443024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,217 +3595,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3872</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2319</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6191</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D20" s="7">
-        <v>740972</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I20" s="7">
-        <v>702052</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2116</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1443024</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
